--- a/record.xlsx
+++ b/record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">训练</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">[1.7575505942106247, 0.777999997138977]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全部使用高斯随机初始化，损失不下降，维持在0.69左右</t>
   </si>
 </sst>
 </file>
@@ -250,18 +253,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.375"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="121.465909090909"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.7272727272727"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="133.642045454545"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.4375"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,6 +354,11 @@
       </c>
       <c r="C7" s="0" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
